--- a/AffordabilityTables-TY24.xlsx
+++ b/AffordabilityTables-TY24.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\GitHub\taxaide-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EEFB90-D513-411F-9EFD-378CBAA08A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB97658-2D62-4F68-B419-CAFE2598DFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17505" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="345" windowWidth="16035" windowHeight="15045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TY24" sheetId="1" r:id="rId1"/>
+    <sheet name="TY24-input" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -401,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -425,33 +425,6 @@
     <xf numFmtId="6" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,6 +447,91 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -504,91 +562,47 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:C62"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,13 +934,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
+      <c r="A6" s="64">
         <v>21870</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="66">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="67">
         <f>B6</f>
         <v>0</v>
       </c>
@@ -936,13 +950,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
+      <c r="A7" s="64">
         <v>29160</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="68">
         <v>2.7E-2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="67">
         <f t="shared" ref="C7:C12" si="1">B7</f>
         <v>2.7E-2</v>
       </c>
@@ -952,13 +966,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+      <c r="A8" s="64">
         <v>36450</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="68">
         <v>3.95E-2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="67">
         <f t="shared" si="1"/>
         <v>3.95E-2</v>
       </c>
@@ -967,14 +981,14 @@
         <v xml:space="preserve">   {incomelimit:36450, percentage:0.0395},</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="64">
         <v>43740</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="68">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="67">
         <f t="shared" si="1"/>
         <v>4.6800000000000001E-2</v>
       </c>
@@ -984,13 +998,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
+      <c r="A10" s="64">
         <v>51030</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="68">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="67">
         <f t="shared" si="1"/>
         <v>7.4499999999999997E-2</v>
       </c>
@@ -1000,13 +1014,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+      <c r="A11" s="64">
         <v>58320</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="68">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="67">
         <f t="shared" si="1"/>
         <v>7.5999999999999998E-2</v>
       </c>
@@ -1015,15 +1029,15 @@
         <v xml:space="preserve">   {incomelimit:58320, percentage:0.076},</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="64">
         <f>A11+1</f>
         <v>58321</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="68">
         <v>0.08</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="67">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
@@ -1033,25 +1047,31 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
       <c r="E13" t="str">
         <f>CONCATENATE("];")</f>
         <v>];</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
       <c r="E14" t="str">
         <f>CONCATENATE("_AffordTab2[_TY] = [")</f>
         <v>_AffordTab2[_TY] = [</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+      <c r="A15" s="64">
         <v>29580</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="66">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="67">
         <f t="shared" ref="C15:C21" si="2">B15</f>
         <v>0</v>
       </c>
@@ -1061,13 +1081,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="A16" s="64">
         <v>39440</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="68">
         <v>0.04</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="67">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
@@ -1077,13 +1097,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
+      <c r="A17" s="64">
         <v>49300</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="68">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="67">
         <f t="shared" si="2"/>
         <v>5.8500000000000003E-2</v>
       </c>
@@ -1092,14 +1112,14 @@
         <v xml:space="preserve">   {incomelimit:49300, percentage:0.0585},</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="64">
         <v>59160</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="68">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="67">
         <f t="shared" si="2"/>
         <v>6.9500000000000006E-2</v>
       </c>
@@ -1109,13 +1129,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
+      <c r="A19" s="64">
         <v>69020</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="68">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="67">
         <f t="shared" si="2"/>
         <v>7.4499999999999997E-2</v>
       </c>
@@ -1125,13 +1145,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
+      <c r="A20" s="64">
         <v>78880</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="68">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="67">
         <f t="shared" si="2"/>
         <v>7.5999999999999998E-2</v>
       </c>
@@ -1145,10 +1165,10 @@
         <f>A20+1</f>
         <v>78881</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="70">
         <v>0.08</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="67">
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
@@ -1158,25 +1178,31 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
       <c r="E22" t="str">
         <f>CONCATENATE("];")</f>
         <v>];</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
       <c r="E23" t="str">
-        <f>CONCATENATE("_AffordTab3Plus[_TY] = [")</f>
-        <v>_AffordTab3Plus[_TY] = [</v>
+        <f>CONCATENATE("_AffordTab3[_TY] = [")</f>
+        <v>_AffordTab3[_TY] = [</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
+      <c r="A24" s="64">
         <v>37290</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="66">
         <v>0</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="67">
         <f t="shared" ref="C24:C30" si="4">B24</f>
         <v>0</v>
       </c>
@@ -1186,13 +1212,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
+      <c r="A25" s="64">
         <v>49720</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="68">
         <v>3.15E-2</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="67">
         <f t="shared" si="4"/>
         <v>3.15E-2</v>
       </c>
@@ -1202,13 +1228,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
+      <c r="A26" s="64">
         <v>62150</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="68">
         <v>4.65E-2</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="67">
         <f t="shared" si="4"/>
         <v>4.65E-2</v>
       </c>
@@ -1217,14 +1243,14 @@
         <v xml:space="preserve">   {incomelimit:62150, percentage:0.0465},</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="64">
         <v>74580</v>
       </c>
-      <c r="B27" s="54">
+      <c r="B27" s="68">
         <v>5.5E-2</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="67">
         <f t="shared" si="4"/>
         <v>5.5E-2</v>
       </c>
@@ -1234,13 +1260,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="62">
+      <c r="A28" s="64">
         <v>87010</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="68">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="67">
         <f t="shared" si="4"/>
         <v>7.4499999999999997E-2</v>
       </c>
@@ -1250,13 +1276,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
+      <c r="A29" s="64">
         <v>99440</v>
       </c>
-      <c r="B29" s="51">
+      <c r="B29" s="68">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="67">
         <f t="shared" si="4"/>
         <v>7.5999999999999998E-2</v>
       </c>
@@ -1270,10 +1296,10 @@
         <f>A29+1</f>
         <v>99441</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="70">
         <v>0.08</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="67">
         <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
@@ -1294,14 +1320,14 @@
         <v>_PremiumRegion1[_TY] = [</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="65">
         <v>313</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="65">
         <v>626</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="65">
         <v>811</v>
       </c>
       <c r="D34" s="5"/>
@@ -1310,14 +1336,14 @@
         <v xml:space="preserve">   {age:30, individual:313, couple:626, family:811},</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="65">
         <v>334</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="65">
         <v>667</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="65">
         <v>854</v>
       </c>
       <c r="D35" s="5"/>
@@ -1326,14 +1352,14 @@
         <v xml:space="preserve">   {age:34, individual:334, couple:667, family:854},</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="65">
         <v>343</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="65">
         <v>685</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="65">
         <v>871</v>
       </c>
       <c r="D36" s="5"/>
@@ -1342,14 +1368,14 @@
         <v xml:space="preserve">   {age:39, individual:343, couple:685, family:871},</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="65">
         <v>367</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="65">
         <v>733</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="65">
         <v>919</v>
       </c>
       <c r="D37" s="5"/>
@@ -1358,14 +1384,14 @@
         <v xml:space="preserve">   {age:44, individual:367, couple:733, family:919},</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="65">
         <v>419</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="65">
         <v>837</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="65">
         <v>1023</v>
       </c>
       <c r="D38" s="5"/>
@@ -1374,14 +1400,14 @@
         <v xml:space="preserve">   {age:49, individual:419, couple:837, family:1023},</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="65">
         <v>486</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="65">
         <v>972</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="65">
         <v>1158</v>
       </c>
       <c r="D39" s="5"/>
@@ -1390,14 +1416,14 @@
         <v xml:space="preserve">   {age:54, individual:486, couple:972, family:1158},</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="65">
         <v>501</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="65">
         <v>1001</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="65">
         <v>1187</v>
       </c>
       <c r="D40" s="5"/>
@@ -1408,8 +1434,8 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E41" t="str">
-        <f>CONCATENATE("]")</f>
-        <v>]</v>
+        <f>CONCATENATE("];")</f>
+        <v>];</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1418,14 +1444,14 @@
         <v>_PremiumRegion2[_TY] = [</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="65">
         <v>299</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="65">
         <v>597</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="65">
         <v>771</v>
       </c>
       <c r="D45" s="7"/>
@@ -1434,14 +1460,14 @@
         <v xml:space="preserve">   {age:30, individual:299, couple:597, family:771},</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="65">
         <v>312</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="65">
         <v>624</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="65">
         <v>798</v>
       </c>
       <c r="D46" s="7"/>
@@ -1450,14 +1476,14 @@
         <v xml:space="preserve">   {age:34, individual:312, couple:624, family:798},</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="65">
         <v>320</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="65">
         <v>640</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="65">
         <v>814</v>
       </c>
       <c r="D47" s="7"/>
@@ -1466,14 +1492,14 @@
         <v xml:space="preserve">   {age:39, individual:320, couple:640, family:814},</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="65">
         <v>343</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="65">
         <v>685</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="65">
         <v>859</v>
       </c>
       <c r="D48" s="7"/>
@@ -1482,14 +1508,14 @@
         <v xml:space="preserve">   {age:44, individual:343, couple:685, family:859},</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="65">
         <v>392</v>
       </c>
-      <c r="B49" s="21">
+      <c r="B49" s="65">
         <v>783</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="65">
         <v>957</v>
       </c>
       <c r="D49" s="7"/>
@@ -1498,14 +1524,14 @@
         <v xml:space="preserve">   {age:49, individual:392, couple:783, family:957},</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="65">
         <v>455</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B50" s="65">
         <v>909</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="65">
         <v>1083</v>
       </c>
       <c r="D50" s="7"/>
@@ -1514,14 +1540,14 @@
         <v xml:space="preserve">   {age:54, individual:455, couple:909, family:1083},</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="65">
         <v>468</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="65">
         <v>936</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="65">
         <v>1110</v>
       </c>
       <c r="D51" s="7"/>
@@ -1532,8 +1558,8 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E52" t="str">
-        <f>CONCATENATE("]")</f>
-        <v>]</v>
+        <f>CONCATENATE("];")</f>
+        <v>];</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1542,14 +1568,14 @@
         <v>_PremiumRegion3[_TY] = [</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="65">
         <v>417</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="65">
         <v>833</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="65">
         <v>1079</v>
       </c>
       <c r="D56" s="7"/>
@@ -1558,14 +1584,14 @@
         <v xml:space="preserve">   {age:30, individual:417, couple:833, family:1079},</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="65">
         <v>512</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B57" s="65">
         <v>1024</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="65">
         <v>1309</v>
       </c>
       <c r="D57" s="7"/>
@@ -1574,14 +1600,14 @@
         <v xml:space="preserve">   {age:34, individual:512, couple:1024, family:1309},</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="65">
         <v>526</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B58" s="65">
         <v>1051</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="65">
         <v>1336</v>
       </c>
       <c r="D58" s="7"/>
@@ -1590,14 +1616,14 @@
         <v xml:space="preserve">   {age:39, individual:526, couple:1051, family:1336},</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="65">
         <v>562</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B59" s="65">
         <v>1124</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="65">
         <v>1410</v>
       </c>
       <c r="D59" s="7"/>
@@ -1606,14 +1632,14 @@
         <v xml:space="preserve">   {age:44, individual:562, couple:1124, family:1410},</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="65">
         <v>642</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="65">
         <v>1284</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="65">
         <v>1570</v>
       </c>
       <c r="D60" s="7"/>
@@ -1622,14 +1648,14 @@
         <v xml:space="preserve">   {age:49, individual:642, couple:1284, family:1570},</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="21">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="65">
         <v>746</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="65">
         <v>1492</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="65">
         <v>1777</v>
       </c>
       <c r="D61" s="7"/>
@@ -1638,14 +1664,14 @@
         <v xml:space="preserve">   {age:54, individual:746, couple:1492, family:1777},</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="65">
         <v>768</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="65">
         <v>1536</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="65">
         <v>1821</v>
       </c>
       <c r="D62" s="7"/>
@@ -1656,8 +1682,8 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E63" t="str">
-        <f>CONCATENATE("]")</f>
-        <v>]</v>
+        <f>CONCATENATE("];")</f>
+        <v>];</v>
       </c>
     </row>
   </sheetData>
@@ -1670,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34:K40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,28 +1706,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
+      <c r="A2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="50" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="54" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1709,243 +1735,243 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="25" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="35"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="55"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="19">
         <v>0</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="20">
         <v>21870</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="21">
         <v>0</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="58"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="39"/>
+      <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="19">
         <v>21871</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="20">
         <v>29160</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="24">
         <v>2.7E-2</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="25">
         <v>49</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="26">
         <v>66</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="12">
         <v>313</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="12">
         <v>626</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="12">
         <v>811</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="19">
         <v>29161</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="20">
         <v>36450</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="24">
         <v>3.95E-2</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="25">
         <v>96</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="26">
         <v>120</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="12">
         <v>334</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="12">
         <v>667</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="12">
         <v>854</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="27">
         <v>36451</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="28">
         <v>43740</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="35">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="36">
         <v>142</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="31">
         <v>171</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="12">
         <v>343</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="12">
         <v>685</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="12">
         <v>871</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="19">
         <v>43741</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="20">
         <v>51030</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="32">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="33">
         <v>272</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="26">
         <v>317</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="12">
         <v>367</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="12">
         <v>733</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="12">
         <v>919</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="19">
         <v>51031</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="20">
         <v>58320</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="32">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="33">
         <v>323</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="26">
         <v>369</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="12">
         <v>419</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="12">
         <v>837</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="12">
         <v>1023</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="27">
         <v>58321</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35">
         <v>0.08</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="36">
         <v>389</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="H11" s="20" t="s">
+      <c r="F11" s="40"/>
+      <c r="H11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="12">
         <v>486</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="12">
         <v>972</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="12">
         <v>1158</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="12">
         <v>501</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="12">
         <v>1001</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="12">
         <v>1187</v>
       </c>
     </row>
@@ -1973,264 +1999,264 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="50" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="54" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="25" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="35"/>
-      <c r="H20" s="22" t="s">
+      <c r="E20" s="53"/>
+      <c r="F20" s="55"/>
+      <c r="H20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="19">
         <v>0</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="20">
         <v>29580</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="21">
         <v>0</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="H21" s="20" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="H21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="12">
         <v>299</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="12">
         <v>597</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="12">
         <v>771</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="19">
         <v>29581</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="20">
         <v>39440</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="24">
         <v>0.04</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="25">
         <v>99</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="26">
         <v>131</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="12">
         <v>312</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="12">
         <v>624</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="12">
         <v>798</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="19">
         <v>39441</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="20">
         <v>49300</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="24">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="25">
         <v>192</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="26">
         <v>240</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="12">
         <v>320</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="12">
         <v>640</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="12">
         <v>814</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="27">
         <v>49301</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="28">
         <v>59160</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="29">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="30">
         <v>286</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="31">
         <v>343</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="12">
         <v>343</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="12">
         <v>685</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="12">
         <v>859</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="19">
         <v>59161</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="20">
         <v>69020</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="32">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="33">
         <v>367</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="26">
         <v>428</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="12">
         <v>392</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="12">
         <v>783</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="12">
         <v>957</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26" s="19">
         <v>69021</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="20">
         <v>78880</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="32">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="33">
         <v>437</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="26">
         <v>500</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="12">
         <v>455</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="12">
         <v>909</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="12">
         <v>1083</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="27">
         <v>78881</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54">
+      <c r="C27" s="34"/>
+      <c r="D27" s="35">
         <v>0.08</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="36">
         <v>526</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="H27" s="20" t="s">
+      <c r="F27" s="37"/>
+      <c r="H27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="12">
         <v>468</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="12">
         <v>936</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="12">
         <v>1110</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="38"/>
       <c r="H29" s="2"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2246,281 +2272,281 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="60" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K33" s="23" t="s">
+      <c r="K33" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="15"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="H34" s="20" t="s">
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="H34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="12">
         <v>417</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="12">
         <v>833</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="12">
         <v>1079</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="38">
+      <c r="B35" s="19">
         <v>0</v>
       </c>
-      <c r="C35" s="39">
+      <c r="C35" s="20">
         <v>37290</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="21">
         <v>0</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="58"/>
-      <c r="H35" s="20" t="s">
+      <c r="E35" s="41"/>
+      <c r="F35" s="39"/>
+      <c r="H35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="12">
         <v>512</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="12">
         <v>1024</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="12">
         <v>1309</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B36" s="19">
         <v>37291</v>
       </c>
-      <c r="C36" s="39">
+      <c r="C36" s="20">
         <v>49720</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="24">
         <v>3.15E-2</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="42">
         <v>98</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="26">
         <v>131</v>
       </c>
-      <c r="H36" s="20" t="s">
+      <c r="H36" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="12">
         <v>526</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="12">
         <v>1051</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="12">
         <v>1336</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B37" s="19">
         <v>49721</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="20">
         <v>62150</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="24">
         <v>4.65E-2</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E37" s="42">
         <v>193</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="26">
         <v>241</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="12">
         <v>562</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="12">
         <v>1124</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="12">
         <v>1410</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="27">
         <v>62151</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="20">
         <v>74580</v>
       </c>
-      <c r="D38" s="54">
+      <c r="D38" s="35">
         <v>5.5E-2</v>
       </c>
-      <c r="E38" s="50">
+      <c r="E38" s="31">
         <v>285</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="26">
         <v>342</v>
       </c>
-      <c r="H38" s="20" t="s">
+      <c r="H38" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="12">
         <v>642</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38" s="12">
         <v>1284</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="12">
         <v>1570</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="38">
+      <c r="B39" s="19">
         <v>74581</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="43">
         <v>87010</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="32">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="26">
         <v>463</v>
       </c>
-      <c r="F39" s="63">
+      <c r="F39" s="44">
         <v>540</v>
       </c>
-      <c r="H39" s="20" t="s">
+      <c r="H39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="12">
         <v>746</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="12">
         <v>1492</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="12">
         <v>1777</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="38">
+      <c r="B40" s="19">
         <v>87011</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="20">
         <v>99440</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="32">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E40" s="45">
+      <c r="E40" s="26">
         <v>551</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="26">
         <v>630</v>
       </c>
-      <c r="H40" s="20" t="s">
+      <c r="H40" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="12">
         <v>768</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="12">
         <v>1536</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="12">
         <v>1821</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="27">
         <v>99441</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="54">
+      <c r="C41" s="34"/>
+      <c r="D41" s="35">
         <v>0.08</v>
       </c>
-      <c r="E41" s="50">
+      <c r="E41" s="31">
         <v>663</v>
       </c>
-      <c r="F41" s="64"/>
+      <c r="F41" s="45"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H42" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
